--- a/ERJ.xlsx
+++ b/ERJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137698C7-2135-47B9-9C93-566DD842DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6FFC3-4182-45BA-8452-3BF1B4DC18D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29175" yWindow="6105" windowWidth="16215" windowHeight="13140" activeTab="1" xr2:uid="{50AE877F-FF9D-4422-86CA-F1E783392A10}"/>
+    <workbookView xWindow="-50790" yWindow="2565" windowWidth="25650" windowHeight="16740" xr2:uid="{50AE877F-FF9D-4422-86CA-F1E783392A10}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Price</t>
   </si>
@@ -115,6 +115,51 @@
   </si>
   <si>
     <t>Backlog</t>
+  </si>
+  <si>
+    <t>C-390 Millennium Multi-Mission Aircraft transport</t>
+  </si>
+  <si>
+    <t>A-29 Super Tucano</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
@@ -164,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -179,6 +224,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -211,7 +261,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -571,15 +621,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9456D42-D739-479E-8487-3F528DA60675}">
-  <dimension ref="G2:H7"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -587,35 +640,59 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="4">
+        <f>740.465/4</f>
+        <v>185.11625000000001</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="4">
+        <f>+H2*H3</f>
+        <v>6479.0687500000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>1307.2</v>
       </c>
-    </row>
-    <row r="7" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <f>+H4-H5+H6</f>
+        <v>7786.2687500000002</v>
       </c>
     </row>
   </sheetData>
@@ -625,28 +702,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15277EB8-31C8-4443-AF99-240E89268B88}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -683,8 +760,51 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>2021</v>
+      </c>
+      <c r="T2">
+        <f>+S2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="U2">
+        <f>+T2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="V2">
+        <f>+U2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="W2">
+        <f>+V2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="X2">
+        <f>+W2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="Y2">
+        <f>+X2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="Z2">
+        <f>+Y2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AA2">
+        <f>+Z2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AB2">
+        <f>+AA2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AC2">
+        <f>+AB2+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -693,7 +813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -701,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -709,7 +829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -717,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -725,7 +845,7 @@
         <v>21100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -747,29 +867,606 @@
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="S10" s="6">
+        <v>4197.2</v>
+      </c>
+      <c r="T10" s="6">
+        <v>4540.3999999999996</v>
+      </c>
+      <c r="U10" s="6">
+        <v>5268.5</v>
+      </c>
+      <c r="V10" s="6">
+        <f>+U10*1.1</f>
+        <v>5795.35</v>
+      </c>
+      <c r="W10" s="6">
+        <f>+V10*1.1</f>
+        <v>6374.8850000000011</v>
+      </c>
+      <c r="X10" s="6">
+        <f>+W10*1.1</f>
+        <v>7012.3735000000015</v>
+      </c>
+      <c r="Y10" s="6">
+        <f>+X10*1.1</f>
+        <v>7713.6108500000018</v>
+      </c>
+      <c r="Z10" s="6">
+        <f>+Y10*1.1</f>
+        <v>8484.9719350000032</v>
+      </c>
+      <c r="AA10" s="6">
+        <f>+Z10*1.1</f>
+        <v>9333.4691285000044</v>
+      </c>
+      <c r="AB10" s="6">
+        <f>+AA10*1.1</f>
+        <v>10266.816041350006</v>
+      </c>
+      <c r="AC10" s="6">
+        <f>+AB10*1.1</f>
+        <v>11293.497645485008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="S11" s="8">
+        <v>3537.6</v>
+      </c>
+      <c r="T11" s="8">
+        <v>3628.2</v>
+      </c>
+      <c r="U11" s="8">
+        <v>4358.8999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="S12" s="8">
+        <f>+S10-S11</f>
+        <v>659.59999999999991</v>
+      </c>
+      <c r="T12" s="8">
+        <f>+T10-T11</f>
+        <v>912.19999999999982</v>
+      </c>
+      <c r="U12" s="8">
+        <f>+U10-U11</f>
+        <v>909.60000000000036</v>
+      </c>
+      <c r="V12" s="8">
+        <f>+V10*0.18</f>
+        <v>1043.163</v>
+      </c>
+      <c r="W12" s="8">
+        <f>+W10*0.19</f>
+        <v>1211.2281500000001</v>
+      </c>
+      <c r="X12" s="8">
+        <f>+X10*0.2</f>
+        <v>1402.4747000000004</v>
+      </c>
+      <c r="Y12" s="8">
+        <f>+Y10*0.205</f>
+        <v>1581.2902242500004</v>
+      </c>
+      <c r="Z12" s="8">
+        <f>+Z10*0.205</f>
+        <v>1739.4192466750005</v>
+      </c>
+      <c r="AA12" s="8">
+        <f>+AA10*0.21</f>
+        <v>1960.0285169850008</v>
+      </c>
+      <c r="AB12" s="8">
+        <f>+AB10*0.21</f>
+        <v>2156.0313686835011</v>
+      </c>
+      <c r="AC12" s="8">
+        <f>+AC10*0.215</f>
+        <v>2428.1019937792767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="S13" s="8">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="T13" s="8">
+        <v>184.9</v>
+      </c>
+      <c r="U13" s="8">
+        <v>204.9</v>
+      </c>
+      <c r="V13" s="8">
+        <f>+U13*1.05</f>
+        <v>215.14500000000001</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" ref="W13:AC13" si="0">+V13*1.05</f>
+        <v>225.90225000000001</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="0"/>
+        <v>237.19736250000003</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="0"/>
+        <v>249.05723062500005</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="0"/>
+        <v>261.51009215625004</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="0"/>
+        <v>274.58559676406253</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="0"/>
+        <v>288.31487660226566</v>
+      </c>
+      <c r="AC13" s="8">
+        <f t="shared" si="0"/>
+        <v>302.73062043237894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="S14" s="8">
+        <v>226.4</v>
+      </c>
+      <c r="T14" s="8">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="U14" s="8">
+        <v>314.7</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" ref="V14:AC14" si="1">+U14*1.05</f>
+        <v>330.435</v>
+      </c>
+      <c r="W14" s="8">
+        <f t="shared" si="1"/>
+        <v>346.95675</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" si="1"/>
+        <v>364.30458750000003</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" si="1"/>
+        <v>382.51981687500006</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" si="1"/>
+        <v>401.64580771875006</v>
+      </c>
+      <c r="AA14" s="8">
+        <f t="shared" si="1"/>
+        <v>421.7280981046876</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="1"/>
+        <v>442.81450300992202</v>
+      </c>
+      <c r="AC14" s="8">
+        <f t="shared" si="1"/>
+        <v>464.95522816041813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="S15" s="8">
+        <v>43</v>
+      </c>
+      <c r="T15" s="8">
+        <v>110</v>
+      </c>
+      <c r="U15" s="8">
+        <v>90.3</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" ref="V15:AC15" si="2">+U15*1.05</f>
+        <v>94.814999999999998</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="2"/>
+        <v>99.555750000000003</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="2"/>
+        <v>104.53353750000001</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="2"/>
+        <v>109.76021437500002</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="2"/>
+        <v>115.24822509375002</v>
+      </c>
+      <c r="AA15" s="8">
+        <f t="shared" si="2"/>
+        <v>121.01063634843753</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="2"/>
+        <v>127.06116816585941</v>
+      </c>
+      <c r="AC15" s="8">
+        <f t="shared" si="2"/>
+        <v>133.41422657415239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="S16" s="8">
+        <f>SUM(S13:S15)</f>
+        <v>422.6</v>
+      </c>
+      <c r="T16" s="8">
+        <f>SUM(T13:T15)</f>
+        <v>569.29999999999995</v>
+      </c>
+      <c r="U16" s="8">
+        <f>SUM(U13:U15)</f>
+        <v>609.9</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" ref="V16:AC16" si="3">SUM(V13:V15)</f>
+        <v>640.39499999999998</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" si="3"/>
+        <v>672.41475000000003</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" si="3"/>
+        <v>706.03548750000004</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="3"/>
+        <v>741.33726187500019</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="3"/>
+        <v>778.40412496875024</v>
+      </c>
+      <c r="AA16" s="8">
+        <f t="shared" si="3"/>
+        <v>817.32433121718771</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="3"/>
+        <v>858.19054777804706</v>
+      </c>
+      <c r="AC16" s="8">
+        <f t="shared" si="3"/>
+        <v>901.10007516694952</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="S17" s="8">
+        <f>+S12-S16</f>
+        <v>236.99999999999989</v>
+      </c>
+      <c r="T17" s="8">
+        <f>+T12-T16</f>
+        <v>342.89999999999986</v>
+      </c>
+      <c r="U17" s="8">
+        <f>+U12-U16</f>
+        <v>299.70000000000039</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" ref="V17:AC17" si="4">+V12-V16</f>
+        <v>402.76800000000003</v>
+      </c>
+      <c r="W17" s="8">
+        <f t="shared" si="4"/>
+        <v>538.81340000000012</v>
+      </c>
+      <c r="X17" s="8">
+        <f t="shared" si="4"/>
+        <v>696.43921250000039</v>
+      </c>
+      <c r="Y17" s="8">
+        <f t="shared" si="4"/>
+        <v>839.9529623750002</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="4"/>
+        <v>961.01512170625028</v>
+      </c>
+      <c r="AA17" s="8">
+        <f t="shared" si="4"/>
+        <v>1142.7041857678132</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="4"/>
+        <v>1297.8408209054542</v>
+      </c>
+      <c r="AC17" s="8">
+        <f t="shared" si="4"/>
+        <v>1527.0019186123272</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
         <v>148.9</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
         <v>47.1</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L18" s="5">
         <v>190.4</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="S19" s="4">
+        <f>74.8-274.2</f>
+        <v>-199.39999999999998</v>
+      </c>
+      <c r="T19" s="4">
+        <f>121.9-245.4</f>
+        <v>-123.5</v>
+      </c>
+      <c r="U19" s="4">
+        <f>128.6-321.9</f>
+        <v>-193.29999999999998</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" ref="V19:AC19" si="5">128.6-321.9</f>
+        <v>-193.29999999999998</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="5"/>
+        <v>-193.29999999999998</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="5"/>
+        <v>-193.29999999999998</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="5"/>
+        <v>-193.29999999999998</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="5"/>
+        <v>-193.29999999999998</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="5"/>
+        <v>-193.29999999999998</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="5"/>
+        <v>-193.29999999999998</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="5"/>
+        <v>-193.29999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="4">
+        <f>+S17+S19</f>
+        <v>37.599999999999909</v>
+      </c>
+      <c r="T20" s="4">
+        <f>+T17+T19</f>
+        <v>219.39999999999986</v>
+      </c>
+      <c r="U20" s="4">
+        <f>+U17+U19</f>
+        <v>106.4000000000004</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" ref="V20:AC20" si="6">+V17+V19</f>
+        <v>209.46800000000005</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="6"/>
+        <v>345.51340000000016</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="6"/>
+        <v>503.13921250000044</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="6"/>
+        <v>646.65296237500024</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" si="6"/>
+        <v>767.71512170625033</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="6"/>
+        <v>949.40418576781326</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" si="6"/>
+        <v>1104.5408209054542</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="6"/>
+        <v>1333.7019186123273</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="10">
+        <f>+T10/S10-1</f>
+        <v>8.1768798246449892E-2</v>
+      </c>
+      <c r="U24" s="10">
+        <f>+U10/T10-1</f>
+        <v>0.16036032067659245</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="10">
+        <f>+S12/S10</f>
+        <v>0.15715238730582293</v>
+      </c>
+      <c r="T25" s="10">
+        <f>+T12/T10</f>
+        <v>0.20090740903885118</v>
+      </c>
+      <c r="U25" s="10">
+        <f>+U12/U10</f>
+        <v>0.1726487615070704</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
